--- a/BC4400/Lecture9/univar_regression_handrolled.xlsx
+++ b/BC4400/Lecture9/univar_regression_handrolled.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cuny547-my.sharepoint.com/personal/dailoae_gradcenter_cuny_edu/Documents/Documents/Work/Teaching/_BK_College/Lecture9-Estimate Lab/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f7f196d72845a7bb/Documents/GitHub/wwwedu.github.io/BC4400/Lecture9/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{2642A826-204A-48F2-9287-5524DF19BD65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{380DECBD-0FCA-4EC0-8E04-DB0A97834C1C}"/>
+  <xr:revisionPtr revIDLastSave="68" documentId="8_{2642A826-204A-48F2-9287-5524DF19BD65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3D7942A6-11B1-4002-964A-0088C089A591}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{6589BF1D-2CC1-4E2F-8F47-CAC41A9A6C4E}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13320" xr2:uid="{6589BF1D-2CC1-4E2F-8F47-CAC41A9A6C4E}"/>
   </bookViews>
   <sheets>
     <sheet name="Handrolled" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="58">
   <si>
     <t>X</t>
   </si>
@@ -184,9 +184,6 @@
     <t>y_hat^2</t>
   </si>
   <si>
-    <t>SER = sqrt(RSS/n-2)</t>
-  </si>
-  <si>
     <t>n</t>
   </si>
   <si>
@@ -197,6 +194,21 @@
   </si>
   <si>
     <t>b0=Ybar - b1*Xbar</t>
+  </si>
+  <si>
+    <t>Excel Output</t>
+  </si>
+  <si>
+    <t>Diff.</t>
+  </si>
+  <si>
+    <t>My Calcs</t>
+  </si>
+  <si>
+    <t>SER = sqrt(RSS/(n-2))</t>
+  </si>
+  <si>
+    <t>i</t>
   </si>
 </sst>
 </file>
@@ -303,7 +315,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -355,6 +367,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -673,19 +691,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E866E68-70AA-48CD-BC1B-6FC4AADFB492}">
   <dimension ref="B2:N17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="2.42578125" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="8" width="8.42578125" style="1" customWidth="1"/>
-    <col min="9" max="13" width="7.85546875" style="1" customWidth="1"/>
-    <col min="14" max="14" width="9.28515625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="2.3828125" customWidth="1"/>
+    <col min="2" max="2" width="19.3828125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.07421875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.07421875" style="1" customWidth="1"/>
+    <col min="5" max="8" width="8.3828125" style="1" customWidth="1"/>
+    <col min="9" max="13" width="7.84375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="9.3046875" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B2" s="7"/>
+    <row r="2" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B2" s="23" t="s">
+        <v>57</v>
+      </c>
       <c r="C2" s="8" t="s">
         <v>1</v>
       </c>
@@ -723,8 +747,10 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="7"/>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B3" s="22">
+        <v>1</v>
+      </c>
       <c r="C3" s="10">
         <v>4</v>
       </c>
@@ -772,8 +798,10 @@
         <v>1.1479591836734697</v>
       </c>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="7"/>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B4" s="22">
+        <v>2</v>
+      </c>
       <c r="C4" s="10">
         <v>5</v>
       </c>
@@ -821,8 +849,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="7"/>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B5" s="22">
+        <v>3</v>
+      </c>
       <c r="C5" s="10">
         <v>7</v>
       </c>
@@ -870,8 +900,10 @@
         <v>1.8418367346938789</v>
       </c>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B6" s="7"/>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B6" s="22">
+        <v>4</v>
+      </c>
       <c r="C6" s="10">
         <v>12</v>
       </c>
@@ -919,7 +951,7 @@
         <v>5.2244897959183705</v>
       </c>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B7" s="7"/>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
@@ -934,7 +966,7 @@
       <c r="M7" s="11"/>
       <c r="N7" s="12"/>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B8" s="14" t="s">
         <v>7</v>
       </c>
@@ -987,7 +1019,7 @@
         <v>12.214285714285719</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B9" s="14" t="s">
         <v>8</v>
       </c>
@@ -1016,11 +1048,17 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B10" s="14"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
+      <c r="C10" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>54</v>
+      </c>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
@@ -1028,30 +1066,36 @@
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
       <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
       <c r="N10" s="9"/>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B11" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C11" s="8">
         <f>COUNT(C3:C6)</f>
         <v>4</v>
       </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="11"/>
+      <c r="D11" s="1">
+        <f>'Excel reg output'!B8</f>
+        <v>4</v>
+      </c>
+      <c r="E11" s="11">
+        <f>C11-D11</f>
+        <v>0</v>
+      </c>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
-      <c r="M11" s="20">
-        <f>L8+N8</f>
-        <v>38</v>
-      </c>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
       <c r="N11" s="9"/>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B12" s="14" t="s">
         <v>6</v>
       </c>
@@ -1059,40 +1103,60 @@
         <f>SUM(G3:G6)/SUM(H3:H6)</f>
         <v>1.3571428571428572</v>
       </c>
-      <c r="D12" s="11"/>
-      <c r="E12" s="16"/>
+      <c r="D12" s="16">
+        <f>'Excel reg output'!B18</f>
+        <v>1.3571428571428572</v>
+      </c>
+      <c r="E12" s="11">
+        <f t="shared" ref="E12:E16" si="11">C12-D12</f>
+        <v>0</v>
+      </c>
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
       <c r="H12" s="11"/>
       <c r="I12" s="11"/>
       <c r="J12" s="11"/>
       <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
-      <c r="N12" s="21" t="s">
+      <c r="L12" s="8"/>
+      <c r="M12" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="N12" s="12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B13" s="14" t="s">
         <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B13" s="14" t="s">
-        <v>53</v>
       </c>
       <c r="C13" s="17">
         <f>C9-C12*D9</f>
         <v>1.5714285714285712</v>
       </c>
-      <c r="D13" s="11"/>
-      <c r="E13" s="16"/>
+      <c r="D13" s="16">
+        <f>'Excel reg output'!B17</f>
+        <v>1.5714285714285712</v>
+      </c>
+      <c r="E13" s="11">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
       <c r="H13" s="11"/>
       <c r="I13" s="11"/>
       <c r="J13" s="11"/>
       <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="12"/>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="M13" s="20">
+        <f>L8+N8</f>
+        <v>38</v>
+      </c>
+      <c r="N13" s="13">
+        <f>M8-M13</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B14" s="14" t="s">
         <v>38</v>
       </c>
@@ -1100,8 +1164,14 @@
         <f>L8/M8</f>
         <v>0.67857142857142838</v>
       </c>
-      <c r="D14" s="11"/>
-      <c r="E14" s="13"/>
+      <c r="D14" s="16">
+        <f>'Excel reg output'!B5</f>
+        <v>0.67857142857142871</v>
+      </c>
+      <c r="E14" s="11">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
       <c r="H14" s="11"/>
@@ -1112,7 +1182,7 @@
       <c r="M14" s="11"/>
       <c r="N14" s="12"/>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B15" s="14" t="s">
         <v>41</v>
       </c>
@@ -1120,8 +1190,14 @@
         <f>1-N8/M8</f>
         <v>0.67857142857142838</v>
       </c>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
+      <c r="D15" s="16">
+        <f>'Excel reg output'!B5</f>
+        <v>0.67857142857142871</v>
+      </c>
+      <c r="E15" s="11">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
       <c r="H15" s="11"/>
@@ -1132,16 +1208,22 @@
       <c r="M15" s="11"/>
       <c r="N15" s="12"/>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B16" s="14" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="C16" s="15">
         <f>SQRT(N8/(C11-2))</f>
         <v>2.4712634131437423</v>
       </c>
-      <c r="D16" s="11"/>
-      <c r="E16" s="16"/>
+      <c r="D16" s="16">
+        <f>'Excel reg output'!B7</f>
+        <v>2.4712634131437414</v>
+      </c>
+      <c r="E16" s="11">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
       <c r="H16" s="11"/>
@@ -1152,13 +1234,13 @@
       <c r="M16" s="11"/>
       <c r="N16" s="12"/>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B17" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C17" s="15">
-        <f>SQRT(N8)</f>
-        <v>3.4948942350643057</v>
+        <f>SQRT(N8/C11)</f>
+        <v>1.7474471175321529</v>
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="16"/>
@@ -1174,81 +1256,78 @@
     </row>
   </sheetData>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C64A9334-EAE6-4EF0-B554-B1B13AE9F515}">
+  <sheetPr>
+    <tabColor theme="9" tint="0.79998168889431442"/>
+  </sheetPr>
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.3046875" customWidth="1"/>
+    <col min="2" max="2" width="11.84375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.84375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11.84375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.84375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.84375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.3828125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="5"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="18">
         <v>0.82375447104791411</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="18">
         <v>0.67857142857142871</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="18">
         <v>0.51785714285714302</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="18">
         <v>2.4712634131437414</v>
       </c>
-      <c r="C7">
-        <f>SQRT(D7)</f>
-        <v>2.4712634131437414</v>
-      </c>
-      <c r="D7">
-        <f>C13/(B8-2)</f>
-        <v>6.107142857142855</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
         <v>15</v>
       </c>
@@ -1256,12 +1335,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
       <c r="B11" s="4" t="s">
         <v>21</v>
@@ -1279,58 +1358,58 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B12" s="2">
         <v>1</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="18">
         <v>25.785714285714292</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="18">
         <v>25.785714285714292</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="18">
         <v>4.222222222222225</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="18">
         <v>0.17624552895208589</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B13" s="2">
         <v>2</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="18">
         <v>12.21428571428571</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="18">
         <v>6.107142857142855</v>
       </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+    </row>
+    <row r="14" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A14" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B14" s="3">
         <v>3</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="19">
         <v>38</v>
       </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-    </row>
-    <row r="15" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+    </row>
+    <row r="15" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A16" s="4"/>
       <c r="B16" s="4" t="s">
         <v>26</v>
@@ -1357,71 +1436,71 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A17" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="18">
         <v>1.5714285714285712</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="18">
         <v>2.9165694833177569</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="18">
         <v>0.53879346280513962</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="18">
         <v>0.64397845268852227</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17" s="18">
         <v>-10.977557077472559</v>
       </c>
-      <c r="G17" s="2">
+      <c r="G17" s="18">
         <v>14.120414220329701</v>
       </c>
-      <c r="H17" s="2">
+      <c r="H17" s="18">
         <v>-10.977557077472559</v>
       </c>
-      <c r="I17" s="2">
+      <c r="I17" s="18">
         <v>14.120414220329701</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A18" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="19">
         <v>1.3571428571428572</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="19">
         <v>0.66047292888953313</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="19">
         <v>2.0548046676563256</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="19">
         <v>0.17624552895208601</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="19">
         <v>-1.484642793269316</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G18" s="19">
         <v>4.1989285075550304</v>
       </c>
-      <c r="H18" s="3">
+      <c r="H18" s="19">
         <v>-1.484642793269316</v>
       </c>
-      <c r="I18" s="3">
+      <c r="I18" s="19">
         <v>4.1989285075550304</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A24" s="4" t="s">
         <v>35</v>
       </c>
@@ -1432,7 +1511,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A25" s="2">
         <v>1</v>
       </c>
@@ -1443,7 +1522,7 @@
         <v>1.0714285714285716</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A26" s="2">
         <v>2</v>
       </c>
@@ -1454,7 +1533,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A27" s="2">
         <v>3</v>
       </c>
@@ -1465,7 +1544,7 @@
         <v>-1.3571428571428577</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A28" s="3">
         <v>4</v>
       </c>
